--- a/data/trans_orig/IP13_R2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP13_R2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEC10712-BFFE-43AB-A670-E320A6209E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9F13D73-7C68-4357-9097-C537882D922B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EC330DB-144B-4B69-A183-C3DCD136A4E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A2BC720F-E495-4527-B3FE-DCE851FD5571}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
   <si>
     <t>Menores según si limitaron su actividad por síntomas en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -101,55 +101,55 @@
     <t>11,51%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
   </si>
   <si>
     <t>88,49%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>94,67%</t>
   </si>
   <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
   </si>
   <si>
     <t>91,37%</t>
   </si>
   <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -158,55 +158,55 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>96,31%</t>
   </si>
   <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>96,04%</t>
   </si>
   <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -215,109 +215,103 @@
     <t>6,09%</t>
   </si>
   <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>7,95%</t>
   </si>
   <si>
     <t>93,91%</t>
   </si>
   <si>
-    <t>90,0%</t>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>96,66%</t>
   </si>
   <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>3,67%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>96,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54CAE17-E16B-4A2B-B12D-D03F0855E54E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910A4597-9392-42B3-8D4A-01F9A7125644}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1506,7 +1500,7 @@
         <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1521,13 +1515,13 @@
         <v>689500</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>900</v>
@@ -1536,13 +1530,13 @@
         <v>625904</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>1826</v>
@@ -1551,13 +1545,13 @@
         <v>1315404</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,7 +1607,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP13_R2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP13_R2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9F13D73-7C68-4357-9097-C537882D922B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{409B2E26-5C5F-4826-8386-B4B4F620FBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A2BC720F-E495-4527-B3FE-DCE851FD5571}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0D574A98-78E3-4EBE-BF2A-CB86C6DEBF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Menores según si limitaron su actividad por síntomas en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,253 +65,226 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -726,8 +699,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910A4597-9392-42B3-8D4A-01F9A7125644}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37064DD4-D1A6-4AFE-834E-AC065B439B71}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -844,96 +817,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2725</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7098</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>9823</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="D5" s="7">
+        <v>51953</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>54906</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>106859</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -942,151 +919,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>6763</v>
+        <v>17843</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>2731</v>
+        <v>18591</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="N7" s="7">
-        <v>9495</v>
+        <v>36433</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>74</v>
+        <v>613</v>
       </c>
       <c r="D8" s="7">
-        <v>51994</v>
+        <v>441851</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>628</v>
       </c>
       <c r="I8" s="7">
-        <v>48471</v>
+        <v>498028</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>139</v>
+        <v>1241</v>
       </c>
       <c r="N8" s="7">
-        <v>100464</v>
+        <v>939880</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1095,153 +1074,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>642</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>459694</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1298</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>976313</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>18185</v>
+        <v>6290</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>17790</v>
+        <v>10864</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
+        <v>22</v>
+      </c>
+      <c r="N10" s="7">
+        <v>17154</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="7">
-        <v>35975</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>628</v>
+        <v>221</v>
       </c>
       <c r="D11" s="7">
-        <v>474179</v>
+        <v>143261</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>613</v>
+        <v>224</v>
       </c>
       <c r="I11" s="7">
-        <v>431346</v>
+        <v>171761</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>1241</v>
+        <v>445</v>
       </c>
       <c r="N11" s="7">
-        <v>905525</v>
+        <v>315022</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1250,153 +1229,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>642</v>
+        <v>237</v>
       </c>
       <c r="I12" s="7">
-        <v>449136</v>
+        <v>182625</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1298</v>
+        <v>467</v>
       </c>
       <c r="N12" s="7">
-        <v>941500</v>
+        <v>332176</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>10582</v>
+        <v>26858</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>6453</v>
+        <v>36553</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="N13" s="7">
-        <v>17035</v>
+        <v>63411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>224</v>
+        <v>899</v>
       </c>
       <c r="D14" s="7">
-        <v>163327</v>
+        <v>637065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>221</v>
+        <v>926</v>
       </c>
       <c r="I14" s="7">
-        <v>144917</v>
+        <v>724695</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>445</v>
+        <v>1825</v>
       </c>
       <c r="N14" s="7">
-        <v>308243</v>
+        <v>1361760</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,216 +1384,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>237</v>
+        <v>941</v>
       </c>
       <c r="D15" s="7">
-        <v>173909</v>
+        <v>663923</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>976</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>761248</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>467</v>
+        <v>1917</v>
       </c>
       <c r="N15" s="7">
-        <v>325278</v>
+        <v>1425171</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>50</v>
-      </c>
-      <c r="D16" s="7">
-        <v>35530</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>42</v>
-      </c>
-      <c r="I16" s="7">
-        <v>26975</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>92</v>
-      </c>
-      <c r="N16" s="7">
-        <v>62505</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="A16" t="s">
         <v>83</v>
       </c>
-      <c r="Q16" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>926</v>
-      </c>
-      <c r="D17" s="7">
-        <v>689500</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="7">
-        <v>900</v>
-      </c>
-      <c r="I17" s="7">
-        <v>625904</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1826</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1315404</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>976</v>
-      </c>
-      <c r="D18" s="7">
-        <v>725030</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652879</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1377909</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
